--- a/biology/Médecine/1271_en_santé_et_médecine/1271_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1271_en_santé_et_médecine/1271_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1271_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1271_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1271 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1271_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1271_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À l'université de Paris, un statut, porté au livre du recteur, qui entretient des relations personnelles avec le doyen des maîtres en médecine, « défend à tout Juif ou Juive d'exercer la médecine envers aucune personne faisant profession de la foi catholique[2] ».
-Un autre des statuts portés au livre du recteur de l'université de Paris « ordonne aux chirurgiens, aux apothicaires, aux herboristes et aux étudiants de se renfermer dans les limites de leurs fonctions[2], [et] l'interdiction de prescrire se fait encore plus précise à l'encontre des herboristes et des apothicaires[3] ».
-À Paris, fondation du collège de chirurgie, présidé par Jean Pitard (1248-1328) et dont les membres, autorisés à se marier tout en gardant les privilèges des médecins ecclésiastiques, prennent le titre de « chirurgiens de robe longue[4] ».
-Fondation de l'hôtel-Dieu de Bolzano, dans la principauté de Trente[5].
-À Bâle, principauté épiscopale du Saint-Empire, les pharmaciens n'ont plus le droit de délivrer aucun médicament sans ordonnance médicale[6].
-J. de Racherolles est doyen de la faculté de médecine de Paris[7].
-« Le chirurgien français Henri du Perche[8] [fl. 1271-1285] décri[t] le cas d’un jeune homme d’une vingtaine d’années atteint d’un œdème unilatéral de la cheville remontant progressivement vers la cuisse. » En termes actuels et vu l'âge du patient, on peut suspecter une thrombophilie[9].
-1271-1272 : Épidémie et famine dans le comté de Flandre[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À l'université de Paris, un statut, porté au livre du recteur, qui entretient des relations personnelles avec le doyen des maîtres en médecine, « défend à tout Juif ou Juive d'exercer la médecine envers aucune personne faisant profession de la foi catholique ».
+Un autre des statuts portés au livre du recteur de l'université de Paris « ordonne aux chirurgiens, aux apothicaires, aux herboristes et aux étudiants de se renfermer dans les limites de leurs fonctions, [et] l'interdiction de prescrire se fait encore plus précise à l'encontre des herboristes et des apothicaires ».
+À Paris, fondation du collège de chirurgie, présidé par Jean Pitard (1248-1328) et dont les membres, autorisés à se marier tout en gardant les privilèges des médecins ecclésiastiques, prennent le titre de « chirurgiens de robe longue ».
+Fondation de l'hôtel-Dieu de Bolzano, dans la principauté de Trente.
+À Bâle, principauté épiscopale du Saint-Empire, les pharmaciens n'ont plus le droit de délivrer aucun médicament sans ordonnance médicale.
+J. de Racherolles est doyen de la faculté de médecine de Paris.
+« Le chirurgien français Henri du Perche [fl. 1271-1285] décri[t] le cas d’un jeune homme d’une vingtaine d’années atteint d’un œdème unilatéral de la cheville remontant progressivement vers la cuisse. » En termes actuels et vu l'âge du patient, on peut suspecter une thrombophilie.
+1271-1272 : Épidémie et famine dans le comté de Flandre.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1271_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1271_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1271[9] - 1285 : fl. Henri Du Perche, chirurgien juré de la prévôté de Paris, « cité dans l'enquête sur les miracles de Saint Louis[8] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1271 - 1285 : fl. Henri Du Perche, chirurgien juré de la prévôté de Paris, « cité dans l'enquête sur les miracles de Saint Louis ».</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1271_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1271_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Entre 1271 et 1281 : Jean Blaise (mort en 1341), chirurgien et médecin de Robert Ier, roi de Naples ; frère d'Armengaud Blaise (1264-1312) et neveu d'Arnaud de Villeneuve (1235-1311[11]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Entre 1271 et 1281 : Jean Blaise (mort en 1341), chirurgien et médecin de Robert Ier, roi de Naples ; frère d'Armengaud Blaise (1264-1312) et neveu d'Arnaud de Villeneuve (1235-1311).</t>
         </is>
       </c>
     </row>
